--- a/results/TAE/globalwheat_tae_KS_results_recurring.xlsx
+++ b/results/TAE/globalwheat_tae_KS_results_recurring.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1% OOD Bilder</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -453,7 +453,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2% OOD Bilder</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3% OOD Bilder</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,7 +473,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4% OOD Bilder</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,7 +483,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5% OOD Bilder</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -493,7 +493,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6% OOD Bilder</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -503,7 +503,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7% OOD Bilder</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -513,7 +513,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8% OOD Bilder</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -523,7 +523,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9% OOD Bilder</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>10% OOD Bilder</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -543,7 +543,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>11% OOD Bilder</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -553,7 +553,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>12% OOD Bilder</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -563,7 +563,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>13% OOD Bilder</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -573,7 +573,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>14% OOD Bilder</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -583,7 +583,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>15% OOD Bilder</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -593,7 +593,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>16% OOD Bilder</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -603,7 +603,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>17% OOD Bilder</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -613,7 +613,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>18% OOD Bilder</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -623,7 +623,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>19% OOD Bilder</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -633,7 +633,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>20% OOD Bilder</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="n">
